--- a/Code/Results/Cases/Case_4_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.074807597808485</v>
+        <v>1.106290348459799</v>
       </c>
       <c r="D2">
-        <v>1.084953991794375</v>
+        <v>1.10526812937073</v>
       </c>
       <c r="E2">
-        <v>1.09147812696215</v>
+        <v>1.118335117395546</v>
       </c>
       <c r="F2">
-        <v>1.095983890462751</v>
+        <v>1.121417665009357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.078956586779467</v>
+        <v>1.074247237397167</v>
       </c>
       <c r="J2">
-        <v>1.094959897667853</v>
+        <v>1.111045055476491</v>
       </c>
       <c r="K2">
-        <v>1.095344293498187</v>
+        <v>1.107878231033273</v>
       </c>
       <c r="L2">
-        <v>1.101794812744567</v>
+        <v>1.120913104722987</v>
       </c>
       <c r="M2">
-        <v>1.106250364215053</v>
+        <v>1.123988193723218</v>
       </c>
       <c r="N2">
-        <v>1.096514866316197</v>
+        <v>1.112622866893917</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.082246971206395</v>
+        <v>1.107778547123415</v>
       </c>
       <c r="D3">
-        <v>1.0910851007466</v>
+        <v>1.10650126255026</v>
       </c>
       <c r="E3">
-        <v>1.098424361344247</v>
+        <v>1.119766051408021</v>
       </c>
       <c r="F3">
-        <v>1.102769772290122</v>
+        <v>1.122811299200462</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.082116437902965</v>
+        <v>1.074793307814864</v>
       </c>
       <c r="J3">
-        <v>1.100721620000636</v>
+        <v>1.112201630391769</v>
       </c>
       <c r="K3">
-        <v>1.100671520208601</v>
+        <v>1.10893320991316</v>
       </c>
       <c r="L3">
-        <v>1.107935676185729</v>
+        <v>1.122167762833439</v>
       </c>
       <c r="M3">
-        <v>1.112237192657295</v>
+        <v>1.125206177156017</v>
       </c>
       <c r="N3">
-        <v>1.102284770955572</v>
+        <v>1.113781084278235</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.086926616456076</v>
+        <v>1.108740496940739</v>
       </c>
       <c r="D4">
-        <v>1.094943370783656</v>
+        <v>1.107298135276957</v>
       </c>
       <c r="E4">
-        <v>1.102798245685376</v>
+        <v>1.120691221117783</v>
       </c>
       <c r="F4">
-        <v>1.107042651270872</v>
+        <v>1.123712293816658</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.084092578366596</v>
+        <v>1.0751447419557</v>
       </c>
       <c r="J4">
-        <v>1.104340872226713</v>
+        <v>1.112948477641468</v>
       </c>
       <c r="K4">
-        <v>1.104016598535355</v>
+        <v>1.109614229123079</v>
       </c>
       <c r="L4">
-        <v>1.111796231278287</v>
+        <v>1.122978327981258</v>
       </c>
       <c r="M4">
-        <v>1.11600051630397</v>
+        <v>1.125992964019073</v>
       </c>
       <c r="N4">
-        <v>1.105909162934944</v>
+        <v>1.114528992136693</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.088863530698558</v>
+        <v>1.109144663755097</v>
       </c>
       <c r="D5">
-        <v>1.096540621216479</v>
+        <v>1.107632894230493</v>
       </c>
       <c r="E5">
-        <v>1.104609614443195</v>
+        <v>1.121079990326009</v>
       </c>
       <c r="F5">
-        <v>1.108812172176797</v>
+        <v>1.124090890115649</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.084907690712116</v>
+        <v>1.075292029978086</v>
       </c>
       <c r="J5">
-        <v>1.105837620325124</v>
+        <v>1.113262089474045</v>
       </c>
       <c r="K5">
-        <v>1.105399650525561</v>
+        <v>1.109900145190138</v>
       </c>
       <c r="L5">
-        <v>1.113393523890263</v>
+        <v>1.123318787233256</v>
       </c>
       <c r="M5">
-        <v>1.117557478534468</v>
+        <v>1.126323415378879</v>
       </c>
       <c r="N5">
-        <v>1.107408036587333</v>
+        <v>1.114843049334044</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.089187010971348</v>
+        <v>1.109212511422045</v>
       </c>
       <c r="D6">
-        <v>1.096807390817156</v>
+        <v>1.107689087410577</v>
       </c>
       <c r="E6">
-        <v>1.1049121854121</v>
+        <v>1.12114525643998</v>
       </c>
       <c r="F6">
-        <v>1.109107751536761</v>
+        <v>1.124154447578319</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.085043654002159</v>
+        <v>1.075316733678327</v>
       </c>
       <c r="J6">
-        <v>1.106087513466484</v>
+        <v>1.113314725139408</v>
       </c>
       <c r="K6">
-        <v>1.105630542613934</v>
+        <v>1.109948129331715</v>
       </c>
       <c r="L6">
-        <v>1.113660247963049</v>
+        <v>1.123375934247115</v>
       </c>
       <c r="M6">
-        <v>1.117817461903445</v>
+        <v>1.12637888134412</v>
       </c>
       <c r="N6">
-        <v>1.107658284605618</v>
+        <v>1.11489575974809</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.086952614931697</v>
+        <v>1.108745898360943</v>
       </c>
       <c r="D7">
-        <v>1.094964808964452</v>
+        <v>1.107302609305101</v>
       </c>
       <c r="E7">
-        <v>1.102822555088257</v>
+        <v>1.12069641654103</v>
       </c>
       <c r="F7">
-        <v>1.1070663991409</v>
+        <v>1.123717353347377</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.084103530521586</v>
+        <v>1.075146711809954</v>
       </c>
       <c r="J7">
-        <v>1.104360967590979</v>
+        <v>1.112952669557894</v>
       </c>
       <c r="K7">
-        <v>1.104035168661046</v>
+        <v>1.109618051052983</v>
       </c>
       <c r="L7">
-        <v>1.111817673574417</v>
+        <v>1.122982878396573</v>
       </c>
       <c r="M7">
-        <v>1.116021417607607</v>
+        <v>1.12599738075385</v>
       </c>
       <c r="N7">
-        <v>1.105929286836931</v>
+        <v>1.114533190006121</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.077350608432934</v>
+        <v>1.106793505738466</v>
       </c>
       <c r="D8">
-        <v>1.087049419329332</v>
+        <v>1.105685091855986</v>
       </c>
       <c r="E8">
-        <v>1.093851595034901</v>
+        <v>1.118818864592032</v>
       </c>
       <c r="F8">
-        <v>1.098302568596652</v>
+        <v>1.121888814629009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.080039119968452</v>
+        <v>1.074432181334188</v>
       </c>
       <c r="J8">
-        <v>1.096930477431582</v>
+        <v>1.111436245738105</v>
       </c>
       <c r="K8">
-        <v>1.097166524807943</v>
+        <v>1.10823510451914</v>
       </c>
       <c r="L8">
-        <v>1.103894399382485</v>
+        <v>1.121337390704495</v>
       </c>
       <c r="M8">
-        <v>1.108297364818797</v>
+        <v>1.124400095018101</v>
       </c>
       <c r="N8">
-        <v>1.098488244529219</v>
+        <v>1.113014612690572</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.059319234437291</v>
+        <v>1.103345107078862</v>
       </c>
       <c r="D9">
-        <v>1.072201729751467</v>
+        <v>1.102826608777834</v>
       </c>
       <c r="E9">
-        <v>1.077044098165233</v>
+        <v>1.115504480117725</v>
       </c>
       <c r="F9">
-        <v>1.081883358153464</v>
+        <v>1.118660503980801</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.072315947279834</v>
+        <v>1.073158353872771</v>
       </c>
       <c r="J9">
-        <v>1.082938145058903</v>
+        <v>1.108752161855624</v>
       </c>
       <c r="K9">
-        <v>1.084222750977611</v>
+        <v>1.105785565885104</v>
       </c>
       <c r="L9">
-        <v>1.088999687599742</v>
+        <v>1.11842779697785</v>
       </c>
       <c r="M9">
-        <v>1.093774292350469</v>
+        <v>1.121575084686998</v>
       </c>
       <c r="N9">
-        <v>1.084476041439628</v>
+        <v>1.11032671710111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.046419567792786</v>
+        <v>1.101040400424339</v>
       </c>
       <c r="D10">
-        <v>1.061596676411081</v>
+        <v>1.100915161569562</v>
       </c>
       <c r="E10">
-        <v>1.065051056001107</v>
+        <v>1.113290603651218</v>
       </c>
       <c r="F10">
-        <v>1.070168317701724</v>
+        <v>1.116503826009914</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.066732838896976</v>
+        <v>1.072299080696747</v>
       </c>
       <c r="J10">
-        <v>1.072905257476385</v>
+        <v>1.106954452556401</v>
       </c>
       <c r="K10">
-        <v>1.074936237342246</v>
+        <v>1.104143804936414</v>
       </c>
       <c r="L10">
-        <v>1.07833737297985</v>
+        <v>1.116481023979158</v>
       </c>
       <c r="M10">
-        <v>1.08337656504208</v>
+        <v>1.119684473046075</v>
       </c>
       <c r="N10">
-        <v>1.074428906005954</v>
+        <v>1.108526454848482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.040591307391937</v>
+        <v>1.100040983937518</v>
       </c>
       <c r="D11">
-        <v>1.056810674947239</v>
+        <v>1.1000860490634</v>
       </c>
       <c r="E11">
-        <v>1.059640975584315</v>
+        <v>1.112330881831303</v>
       </c>
       <c r="F11">
-        <v>1.064884069118392</v>
+        <v>1.115568831088668</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.064197515489247</v>
+        <v>1.071924587528597</v>
       </c>
       <c r="J11">
-        <v>1.068367780435278</v>
+        <v>1.106173987304502</v>
       </c>
       <c r="K11">
-        <v>1.070735258503586</v>
+        <v>1.103430774751479</v>
       </c>
       <c r="L11">
-        <v>1.073519464178886</v>
+        <v>1.115636312318235</v>
       </c>
       <c r="M11">
-        <v>1.078677997664092</v>
+        <v>1.118864028301924</v>
       </c>
       <c r="N11">
-        <v>1.069884985226993</v>
+        <v>1.107744881246405</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.038386641131896</v>
+        <v>1.099669529040356</v>
       </c>
       <c r="D12">
-        <v>1.055001236367189</v>
+        <v>1.099777857586486</v>
       </c>
       <c r="E12">
-        <v>1.057595892599715</v>
+        <v>1.111974227053935</v>
       </c>
       <c r="F12">
-        <v>1.062886635461191</v>
+        <v>1.115221355163219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.063236644965248</v>
+        <v>1.071785117227024</v>
       </c>
       <c r="J12">
-        <v>1.066650799298098</v>
+        <v>1.105883774894668</v>
       </c>
       <c r="K12">
-        <v>1.069145472420222</v>
+        <v>1.103165597498438</v>
       </c>
       <c r="L12">
-        <v>1.071697008899434</v>
+        <v>1.115322280627729</v>
       </c>
       <c r="M12">
-        <v>1.076900665113056</v>
+        <v>1.118559002920705</v>
       </c>
       <c r="N12">
-        <v>1.068165565779658</v>
+        <v>1.10745425670166</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.038861408347064</v>
+        <v>1.099749217771351</v>
       </c>
       <c r="D13">
-        <v>1.055390846441135</v>
+        <v>1.099843975844547</v>
       </c>
       <c r="E13">
-        <v>1.058036229097857</v>
+        <v>1.11205073857033</v>
       </c>
       <c r="F13">
-        <v>1.063316708267688</v>
+        <v>1.11529589804395</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.063443646069832</v>
+        <v>1.071815050729169</v>
       </c>
       <c r="J13">
-        <v>1.067020569930223</v>
+        <v>1.105946040689597</v>
       </c>
       <c r="K13">
-        <v>1.069487855947733</v>
+        <v>1.103222493757349</v>
       </c>
       <c r="L13">
-        <v>1.07208946550682</v>
+        <v>1.115389653720633</v>
       </c>
       <c r="M13">
-        <v>1.077283405467487</v>
+        <v>1.118624444465944</v>
       </c>
       <c r="N13">
-        <v>1.068535861528493</v>
+        <v>1.10751661092116</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C14">
-        <v>1.040409901510674</v>
+        <v>1.100010284035121</v>
       </c>
       <c r="D14">
-        <v>1.056661768914192</v>
+        <v>1.100060578423124</v>
       </c>
       <c r="E14">
-        <v>1.059472671610318</v>
+        <v>1.112301404168417</v>
       </c>
       <c r="F14">
-        <v>1.064719684729099</v>
+        <v>1.115540112269779</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.064118489007659</v>
+        <v>1.071913066371036</v>
       </c>
       <c r="J14">
-        <v>1.068226513848282</v>
+        <v>1.10615000467096</v>
       </c>
       <c r="K14">
-        <v>1.070604459650098</v>
+        <v>1.103408861798601</v>
       </c>
       <c r="L14">
-        <v>1.073369506549603</v>
+        <v>1.115610359865178</v>
       </c>
       <c r="M14">
-        <v>1.078531753215903</v>
+        <v>1.118838820465085</v>
       </c>
       <c r="N14">
-        <v>1.069743518025241</v>
+        <v>1.107720864554772</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.041358599610745</v>
+        <v>1.100171105263361</v>
       </c>
       <c r="D15">
-        <v>1.05744054293318</v>
+        <v>1.100194004819698</v>
       </c>
       <c r="E15">
-        <v>1.060352908195666</v>
+        <v>1.11245582462037</v>
       </c>
       <c r="F15">
-        <v>1.065579425231969</v>
+        <v>1.115690557054891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.064531699907379</v>
+        <v>1.071973408341127</v>
       </c>
       <c r="J15">
-        <v>1.068965272443217</v>
+        <v>1.10627563198618</v>
       </c>
       <c r="K15">
-        <v>1.071288471484163</v>
+        <v>1.103523645937283</v>
       </c>
       <c r="L15">
-        <v>1.074153741352558</v>
+        <v>1.115746308494907</v>
       </c>
       <c r="M15">
-        <v>1.079296568417132</v>
+        <v>1.118970867895138</v>
       </c>
       <c r="N15">
-        <v>1.070483325742116</v>
+        <v>1.107846670275189</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.046800982697143</v>
+        <v>1.101106696955397</v>
       </c>
       <c r="D16">
-        <v>1.061910009299801</v>
+        <v>1.100970156172973</v>
       </c>
       <c r="E16">
-        <v>1.06540529054885</v>
+        <v>1.113354273542866</v>
       </c>
       <c r="F16">
-        <v>1.070514323573245</v>
+        <v>1.116565854028677</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.066898499011521</v>
+        <v>1.072323883289911</v>
       </c>
       <c r="J16">
-        <v>1.073202115280298</v>
+        <v>1.107006205897265</v>
       </c>
       <c r="K16">
-        <v>1.075211060237395</v>
+        <v>1.104191080949454</v>
       </c>
       <c r="L16">
-        <v>1.078652665675731</v>
+        <v>1.116537047424296</v>
       </c>
       <c r="M16">
-        <v>1.083684044348916</v>
+        <v>1.119738884912175</v>
       </c>
       <c r="N16">
-        <v>1.074726185381999</v>
+        <v>1.108578281685026</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.050147657384748</v>
+        <v>1.10169317201879</v>
       </c>
       <c r="D17">
-        <v>1.064659946071092</v>
+        <v>1.101456625249166</v>
       </c>
       <c r="E17">
-        <v>1.068514453081572</v>
+        <v>1.113917548229309</v>
       </c>
       <c r="F17">
-        <v>1.07355131207972</v>
+        <v>1.117114595465161</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.068350627278669</v>
+        <v>1.072543076389851</v>
       </c>
       <c r="J17">
-        <v>1.075806359859611</v>
+        <v>1.107463924100499</v>
       </c>
       <c r="K17">
-        <v>1.077621882368552</v>
+        <v>1.104609169640851</v>
       </c>
       <c r="L17">
-        <v>1.081419112423271</v>
+        <v>1.117032585471619</v>
       </c>
       <c r="M17">
-        <v>1.086381911683414</v>
+        <v>1.120220156509317</v>
       </c>
       <c r="N17">
-        <v>1.077334128287326</v>
+        <v>1.10903664990061</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.052076553052434</v>
+        <v>1.102035112307957</v>
       </c>
       <c r="D18">
-        <v>1.066245413873391</v>
+        <v>1.10174023554152</v>
       </c>
       <c r="E18">
-        <v>1.070307252357794</v>
+        <v>1.114245991243304</v>
       </c>
       <c r="F18">
-        <v>1.075302533137664</v>
+        <v>1.11743455756244</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.069186369084925</v>
+        <v>1.07267069450907</v>
       </c>
       <c r="J18">
-        <v>1.077306920450296</v>
+        <v>1.107730706426117</v>
       </c>
       <c r="K18">
-        <v>1.079010892363483</v>
+        <v>1.104852827868739</v>
       </c>
       <c r="L18">
-        <v>1.08301353109722</v>
+        <v>1.117321456353633</v>
       </c>
       <c r="M18">
-        <v>1.087936784021481</v>
+        <v>1.120500701046511</v>
       </c>
       <c r="N18">
-        <v>1.078836819846166</v>
+        <v>1.10930381108773</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.0527304226314</v>
+        <v>1.102151681465091</v>
       </c>
       <c r="D19">
-        <v>1.066782948456125</v>
+        <v>1.101836915924836</v>
       </c>
       <c r="E19">
-        <v>1.070915119078765</v>
+        <v>1.114357964104521</v>
       </c>
       <c r="F19">
-        <v>1.07589630835545</v>
+        <v>1.117543637977995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.069469466506995</v>
+        <v>1.072714169471788</v>
       </c>
       <c r="J19">
-        <v>1.07781551534536</v>
+        <v>1.10782163906556</v>
       </c>
       <c r="K19">
-        <v>1.079481660910488</v>
+        <v>1.104935874267218</v>
       </c>
       <c r="L19">
-        <v>1.083554005217676</v>
+        <v>1.117419925526217</v>
       </c>
       <c r="M19">
-        <v>1.088463848841385</v>
+        <v>1.12059633030217</v>
       </c>
       <c r="N19">
-        <v>1.079346137004317</v>
+        <v>1.109394872861951</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.049791009558258</v>
+        <v>1.101630263400174</v>
       </c>
       <c r="D20">
-        <v>1.064366837447682</v>
+        <v>1.101404446126014</v>
       </c>
       <c r="E20">
-        <v>1.068183032878939</v>
+        <v>1.11385712515269</v>
       </c>
       <c r="F20">
-        <v>1.073227581100907</v>
+        <v>1.117055732072123</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.068196002194736</v>
+        <v>1.072519583218911</v>
       </c>
       <c r="J20">
-        <v>1.07552887492296</v>
+        <v>1.107414835682022</v>
       </c>
       <c r="K20">
-        <v>1.077365017129593</v>
+        <v>1.104564334007959</v>
       </c>
       <c r="L20">
-        <v>1.081124303333619</v>
+        <v>1.116979436356286</v>
       </c>
       <c r="M20">
-        <v>1.08609441294171</v>
+        <v>1.120168538561211</v>
       </c>
       <c r="N20">
-        <v>1.077056249290237</v>
+        <v>1.108987491770947</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.039955036207812</v>
+        <v>1.099933412855428</v>
       </c>
       <c r="D21">
-        <v>1.056288411314916</v>
+        <v>1.09999680053863</v>
       </c>
       <c r="E21">
-        <v>1.059050681501431</v>
+        <v>1.112227594178617</v>
       </c>
       <c r="F21">
-        <v>1.064307523639149</v>
+        <v>1.115468202206902</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06392030535066</v>
+        <v>1.07188421335855</v>
       </c>
       <c r="J21">
-        <v>1.067872286592385</v>
+        <v>1.106089951043759</v>
       </c>
       <c r="K21">
-        <v>1.070276478228995</v>
+        <v>1.103353990098112</v>
       </c>
       <c r="L21">
-        <v>1.072993496756345</v>
+        <v>1.115545374856377</v>
       </c>
       <c r="M21">
-        <v>1.078165053721776</v>
+        <v>1.118775699731818</v>
       </c>
       <c r="N21">
-        <v>1.06938878772601</v>
+        <v>1.107660725644531</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.033538578682346</v>
+        <v>1.098865217921957</v>
       </c>
       <c r="D22">
-        <v>1.05102423998011</v>
+        <v>1.099110469776692</v>
       </c>
       <c r="E22">
-        <v>1.0531014669576</v>
+        <v>1.111202048787728</v>
       </c>
       <c r="F22">
-        <v>1.058497104293076</v>
+        <v>1.114469031038889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.061120427529357</v>
+        <v>1.071482607068619</v>
       </c>
       <c r="J22">
-        <v>1.062874192096665</v>
+        <v>1.105255130555175</v>
       </c>
       <c r="K22">
-        <v>1.065648415584827</v>
+        <v>1.102591109634491</v>
       </c>
       <c r="L22">
-        <v>1.067689594020914</v>
+        <v>1.11464216901573</v>
       </c>
       <c r="M22">
-        <v>1.072992448574294</v>
+        <v>1.117898368906888</v>
       </c>
       <c r="N22">
-        <v>1.064383595362816</v>
+        <v>1.106824719615099</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.036963301581949</v>
+        <v>1.099431615602275</v>
       </c>
       <c r="D23">
-        <v>1.053833349670856</v>
+        <v>1.099580454373491</v>
       </c>
       <c r="E23">
-        <v>1.056275989628463</v>
+        <v>1.111745806189552</v>
       </c>
       <c r="F23">
-        <v>1.061597511581355</v>
+        <v>1.114998810060215</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.062615800669016</v>
+        <v>1.071695708486389</v>
       </c>
       <c r="J23">
-        <v>1.065542158921955</v>
+        <v>1.105697858409706</v>
       </c>
       <c r="K23">
-        <v>1.068118925605097</v>
+        <v>1.102995707772581</v>
       </c>
       <c r="L23">
-        <v>1.070520446235014</v>
+        <v>1.115121124822358</v>
       </c>
       <c r="M23">
-        <v>1.075753229283343</v>
+        <v>1.118363611914554</v>
       </c>
       <c r="N23">
-        <v>1.067055351007018</v>
+        <v>1.107268076193964</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.049952234692634</v>
+        <v>1.101658689532133</v>
       </c>
       <c r="D24">
-        <v>1.064499337671895</v>
+        <v>1.101428024055247</v>
       </c>
       <c r="E24">
-        <v>1.06833285122454</v>
+        <v>1.113884428066743</v>
       </c>
       <c r="F24">
-        <v>1.073373923417998</v>
+        <v>1.117082330244408</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.068265905304508</v>
+        <v>1.072530199493301</v>
       </c>
       <c r="J24">
-        <v>1.075654315253313</v>
+        <v>1.107437017234238</v>
       </c>
       <c r="K24">
-        <v>1.077481136398305</v>
+        <v>1.104584593936834</v>
       </c>
       <c r="L24">
-        <v>1.081257574016791</v>
+        <v>1.117003452673406</v>
       </c>
       <c r="M24">
-        <v>1.086224378993309</v>
+        <v>1.12019186302511</v>
       </c>
       <c r="N24">
-        <v>1.077181867760247</v>
+        <v>1.109009704823513</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.064125159929184</v>
+        <v>1.104237591077428</v>
       </c>
       <c r="D25">
-        <v>1.076156649392502</v>
+        <v>1.103566596026985</v>
       </c>
       <c r="E25">
-        <v>1.081518880873888</v>
+        <v>1.11636205987168</v>
       </c>
       <c r="F25">
-        <v>1.086254664643975</v>
+        <v>1.119495865016724</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.074384576952283</v>
+        <v>1.073489430079934</v>
       </c>
       <c r="J25">
-        <v>1.086671695609644</v>
+        <v>1.109447507383472</v>
       </c>
       <c r="K25">
-        <v>1.087677520503115</v>
+        <v>1.10642035106041</v>
       </c>
       <c r="L25">
-        <v>1.092971037053643</v>
+        <v>1.11918121632355</v>
       </c>
       <c r="M25">
-        <v>1.097646837503315</v>
+        <v>1.122306678106413</v>
       </c>
       <c r="N25">
-        <v>1.088214894060395</v>
+        <v>1.111023050099364</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.106290348459799</v>
+        <v>1.074807597808483</v>
       </c>
       <c r="D2">
-        <v>1.10526812937073</v>
+        <v>1.084953991794373</v>
       </c>
       <c r="E2">
-        <v>1.118335117395546</v>
+        <v>1.091478126962148</v>
       </c>
       <c r="F2">
-        <v>1.121417665009357</v>
+        <v>1.09598389046275</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074247237397167</v>
+        <v>1.078956586779466</v>
       </c>
       <c r="J2">
-        <v>1.111045055476491</v>
+        <v>1.094959897667851</v>
       </c>
       <c r="K2">
-        <v>1.107878231033273</v>
+        <v>1.095344293498185</v>
       </c>
       <c r="L2">
-        <v>1.120913104722987</v>
+        <v>1.101794812744565</v>
       </c>
       <c r="M2">
-        <v>1.123988193723218</v>
+        <v>1.106250364215052</v>
       </c>
       <c r="N2">
-        <v>1.112622866893917</v>
+        <v>1.096514866316195</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.107778547123415</v>
+        <v>1.082246971206394</v>
       </c>
       <c r="D3">
-        <v>1.10650126255026</v>
+        <v>1.0910851007466</v>
       </c>
       <c r="E3">
-        <v>1.119766051408021</v>
+        <v>1.098424361344246</v>
       </c>
       <c r="F3">
-        <v>1.122811299200462</v>
+        <v>1.102769772290122</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.074793307814864</v>
+        <v>1.082116437902965</v>
       </c>
       <c r="J3">
-        <v>1.112201630391769</v>
+        <v>1.100721620000636</v>
       </c>
       <c r="K3">
-        <v>1.10893320991316</v>
+        <v>1.100671520208601</v>
       </c>
       <c r="L3">
-        <v>1.122167762833439</v>
+        <v>1.107935676185729</v>
       </c>
       <c r="M3">
-        <v>1.125206177156017</v>
+        <v>1.112237192657295</v>
       </c>
       <c r="N3">
-        <v>1.113781084278235</v>
+        <v>1.102284770955572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.108740496940739</v>
+        <v>1.086926616456076</v>
       </c>
       <c r="D4">
-        <v>1.107298135276957</v>
+        <v>1.094943370783656</v>
       </c>
       <c r="E4">
-        <v>1.120691221117783</v>
+        <v>1.102798245685376</v>
       </c>
       <c r="F4">
-        <v>1.123712293816658</v>
+        <v>1.107042651270872</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0751447419557</v>
+        <v>1.084092578366596</v>
       </c>
       <c r="J4">
-        <v>1.112948477641468</v>
+        <v>1.104340872226714</v>
       </c>
       <c r="K4">
-        <v>1.109614229123079</v>
+        <v>1.104016598535355</v>
       </c>
       <c r="L4">
-        <v>1.122978327981258</v>
+        <v>1.111796231278287</v>
       </c>
       <c r="M4">
-        <v>1.125992964019073</v>
+        <v>1.116000516303971</v>
       </c>
       <c r="N4">
-        <v>1.114528992136693</v>
+        <v>1.105909162934944</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.109144663755097</v>
+        <v>1.088863530698558</v>
       </c>
       <c r="D5">
-        <v>1.107632894230493</v>
+        <v>1.09654062121648</v>
       </c>
       <c r="E5">
-        <v>1.121079990326009</v>
+        <v>1.104609614443195</v>
       </c>
       <c r="F5">
-        <v>1.124090890115649</v>
+        <v>1.108812172176798</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075292029978086</v>
+        <v>1.084907690712116</v>
       </c>
       <c r="J5">
-        <v>1.113262089474045</v>
+        <v>1.105837620325124</v>
       </c>
       <c r="K5">
-        <v>1.109900145190138</v>
+        <v>1.105399650525561</v>
       </c>
       <c r="L5">
-        <v>1.123318787233256</v>
+        <v>1.113393523890263</v>
       </c>
       <c r="M5">
-        <v>1.126323415378879</v>
+        <v>1.117557478534467</v>
       </c>
       <c r="N5">
-        <v>1.114843049334044</v>
+        <v>1.107408036587334</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.109212511422045</v>
+        <v>1.089187010971347</v>
       </c>
       <c r="D6">
-        <v>1.107689087410577</v>
+        <v>1.096807390817156</v>
       </c>
       <c r="E6">
-        <v>1.12114525643998</v>
+        <v>1.1049121854121</v>
       </c>
       <c r="F6">
-        <v>1.124154447578319</v>
+        <v>1.109107751536761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.075316733678327</v>
+        <v>1.085043654002159</v>
       </c>
       <c r="J6">
-        <v>1.113314725139408</v>
+        <v>1.106087513466484</v>
       </c>
       <c r="K6">
-        <v>1.109948129331715</v>
+        <v>1.105630542613934</v>
       </c>
       <c r="L6">
-        <v>1.123375934247115</v>
+        <v>1.113660247963049</v>
       </c>
       <c r="M6">
-        <v>1.12637888134412</v>
+        <v>1.117817461903445</v>
       </c>
       <c r="N6">
-        <v>1.11489575974809</v>
+        <v>1.107658284605617</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.108745898360943</v>
+        <v>1.086952614931696</v>
       </c>
       <c r="D7">
-        <v>1.107302609305101</v>
+        <v>1.094964808964451</v>
       </c>
       <c r="E7">
-        <v>1.12069641654103</v>
+        <v>1.102822555088256</v>
       </c>
       <c r="F7">
-        <v>1.123717353347377</v>
+        <v>1.1070663991409</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.075146711809954</v>
+        <v>1.084103530521586</v>
       </c>
       <c r="J7">
-        <v>1.112952669557894</v>
+        <v>1.104360967590978</v>
       </c>
       <c r="K7">
-        <v>1.109618051052983</v>
+        <v>1.104035168661045</v>
       </c>
       <c r="L7">
-        <v>1.122982878396573</v>
+        <v>1.111817673574417</v>
       </c>
       <c r="M7">
-        <v>1.12599738075385</v>
+        <v>1.116021417607606</v>
       </c>
       <c r="N7">
-        <v>1.114533190006121</v>
+        <v>1.10592928683693</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.106793505738466</v>
+        <v>1.077350608432934</v>
       </c>
       <c r="D8">
-        <v>1.105685091855986</v>
+        <v>1.087049419329332</v>
       </c>
       <c r="E8">
-        <v>1.118818864592032</v>
+        <v>1.093851595034901</v>
       </c>
       <c r="F8">
-        <v>1.121888814629009</v>
+        <v>1.098302568596652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074432181334188</v>
+        <v>1.080039119968452</v>
       </c>
       <c r="J8">
-        <v>1.111436245738105</v>
+        <v>1.096930477431582</v>
       </c>
       <c r="K8">
-        <v>1.10823510451914</v>
+        <v>1.097166524807943</v>
       </c>
       <c r="L8">
-        <v>1.121337390704495</v>
+        <v>1.103894399382485</v>
       </c>
       <c r="M8">
-        <v>1.124400095018101</v>
+        <v>1.108297364818797</v>
       </c>
       <c r="N8">
-        <v>1.113014612690572</v>
+        <v>1.098488244529219</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.103345107078862</v>
+        <v>1.059319234437289</v>
       </c>
       <c r="D9">
-        <v>1.102826608777834</v>
+        <v>1.072201729751465</v>
       </c>
       <c r="E9">
-        <v>1.115504480117725</v>
+        <v>1.077044098165231</v>
       </c>
       <c r="F9">
-        <v>1.118660503980801</v>
+        <v>1.081883358153463</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.073158353872771</v>
+        <v>1.072315947279833</v>
       </c>
       <c r="J9">
-        <v>1.108752161855624</v>
+        <v>1.082938145058901</v>
       </c>
       <c r="K9">
-        <v>1.105785565885104</v>
+        <v>1.084222750977609</v>
       </c>
       <c r="L9">
-        <v>1.11842779697785</v>
+        <v>1.08899968759974</v>
       </c>
       <c r="M9">
-        <v>1.121575084686998</v>
+        <v>1.093774292350468</v>
       </c>
       <c r="N9">
-        <v>1.11032671710111</v>
+        <v>1.084476041439626</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.101040400424339</v>
+        <v>1.046419567792785</v>
       </c>
       <c r="D10">
-        <v>1.100915161569562</v>
+        <v>1.06159667641108</v>
       </c>
       <c r="E10">
-        <v>1.113290603651218</v>
+        <v>1.065051056001107</v>
       </c>
       <c r="F10">
-        <v>1.116503826009914</v>
+        <v>1.070168317701723</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.072299080696747</v>
+        <v>1.066732838896976</v>
       </c>
       <c r="J10">
-        <v>1.106954452556401</v>
+        <v>1.072905257476384</v>
       </c>
       <c r="K10">
-        <v>1.104143804936414</v>
+        <v>1.074936237342245</v>
       </c>
       <c r="L10">
-        <v>1.116481023979158</v>
+        <v>1.078337372979849</v>
       </c>
       <c r="M10">
-        <v>1.119684473046075</v>
+        <v>1.083376565042079</v>
       </c>
       <c r="N10">
-        <v>1.108526454848482</v>
+        <v>1.074428906005953</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.100040983937518</v>
+        <v>1.040591307391933</v>
       </c>
       <c r="D11">
-        <v>1.1000860490634</v>
+        <v>1.056810674947235</v>
       </c>
       <c r="E11">
-        <v>1.112330881831303</v>
+        <v>1.059640975584312</v>
       </c>
       <c r="F11">
-        <v>1.115568831088668</v>
+        <v>1.064884069118388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.071924587528597</v>
+        <v>1.064197515489245</v>
       </c>
       <c r="J11">
-        <v>1.106173987304502</v>
+        <v>1.068367780435273</v>
       </c>
       <c r="K11">
-        <v>1.103430774751479</v>
+        <v>1.070735258503581</v>
       </c>
       <c r="L11">
-        <v>1.115636312318235</v>
+        <v>1.073519464178882</v>
       </c>
       <c r="M11">
-        <v>1.118864028301924</v>
+        <v>1.078677997664087</v>
       </c>
       <c r="N11">
-        <v>1.107744881246405</v>
+        <v>1.069884985226989</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.099669529040356</v>
+        <v>1.038386641131894</v>
       </c>
       <c r="D12">
-        <v>1.099777857586486</v>
+        <v>1.055001236367188</v>
       </c>
       <c r="E12">
-        <v>1.111974227053935</v>
+        <v>1.057595892599712</v>
       </c>
       <c r="F12">
-        <v>1.115221355163219</v>
+        <v>1.062886635461189</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.071785117227024</v>
+        <v>1.063236644965247</v>
       </c>
       <c r="J12">
-        <v>1.105883774894668</v>
+        <v>1.066650799298096</v>
       </c>
       <c r="K12">
-        <v>1.103165597498438</v>
+        <v>1.069145472420221</v>
       </c>
       <c r="L12">
-        <v>1.115322280627729</v>
+        <v>1.071697008899432</v>
       </c>
       <c r="M12">
-        <v>1.118559002920705</v>
+        <v>1.076900665113054</v>
       </c>
       <c r="N12">
-        <v>1.10745425670166</v>
+        <v>1.068165565779657</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.099749217771351</v>
+        <v>1.038861408347066</v>
       </c>
       <c r="D13">
-        <v>1.099843975844547</v>
+        <v>1.055390846441137</v>
       </c>
       <c r="E13">
-        <v>1.11205073857033</v>
+        <v>1.05803622909786</v>
       </c>
       <c r="F13">
-        <v>1.11529589804395</v>
+        <v>1.063316708267691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.071815050729169</v>
+        <v>1.063443646069833</v>
       </c>
       <c r="J13">
-        <v>1.105946040689597</v>
+        <v>1.067020569930225</v>
       </c>
       <c r="K13">
-        <v>1.103222493757349</v>
+        <v>1.069487855947735</v>
       </c>
       <c r="L13">
-        <v>1.115389653720633</v>
+        <v>1.072089465506822</v>
       </c>
       <c r="M13">
-        <v>1.118624444465944</v>
+        <v>1.07728340546749</v>
       </c>
       <c r="N13">
-        <v>1.10751661092116</v>
+        <v>1.068535861528495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.100010284035121</v>
+        <v>1.040409901510673</v>
       </c>
       <c r="D14">
-        <v>1.100060578423124</v>
+        <v>1.056661768914191</v>
       </c>
       <c r="E14">
-        <v>1.112301404168417</v>
+        <v>1.059472671610317</v>
       </c>
       <c r="F14">
-        <v>1.115540112269779</v>
+        <v>1.064719684729098</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.071913066371036</v>
+        <v>1.064118489007658</v>
       </c>
       <c r="J14">
-        <v>1.10615000467096</v>
+        <v>1.068226513848282</v>
       </c>
       <c r="K14">
-        <v>1.103408861798601</v>
+        <v>1.070604459650097</v>
       </c>
       <c r="L14">
-        <v>1.115610359865178</v>
+        <v>1.073369506549602</v>
       </c>
       <c r="M14">
-        <v>1.118838820465085</v>
+        <v>1.078531753215902</v>
       </c>
       <c r="N14">
-        <v>1.107720864554772</v>
+        <v>1.06974351802524</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.100171105263361</v>
+        <v>1.041358599610746</v>
       </c>
       <c r="D15">
-        <v>1.100194004819698</v>
+        <v>1.05744054293318</v>
       </c>
       <c r="E15">
-        <v>1.11245582462037</v>
+        <v>1.060352908195667</v>
       </c>
       <c r="F15">
-        <v>1.115690557054891</v>
+        <v>1.065579425231969</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.071973408341127</v>
+        <v>1.064531699907379</v>
       </c>
       <c r="J15">
-        <v>1.10627563198618</v>
+        <v>1.068965272443217</v>
       </c>
       <c r="K15">
-        <v>1.103523645937283</v>
+        <v>1.071288471484163</v>
       </c>
       <c r="L15">
-        <v>1.115746308494907</v>
+        <v>1.074153741352559</v>
       </c>
       <c r="M15">
-        <v>1.118970867895138</v>
+        <v>1.079296568417132</v>
       </c>
       <c r="N15">
-        <v>1.107846670275189</v>
+        <v>1.070483325742117</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.101106696955397</v>
+        <v>1.046800982697146</v>
       </c>
       <c r="D16">
-        <v>1.100970156172973</v>
+        <v>1.061910009299804</v>
       </c>
       <c r="E16">
-        <v>1.113354273542866</v>
+        <v>1.065405290548854</v>
       </c>
       <c r="F16">
-        <v>1.116565854028677</v>
+        <v>1.070514323573248</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.072323883289911</v>
+        <v>1.066898499011523</v>
       </c>
       <c r="J16">
-        <v>1.107006205897265</v>
+        <v>1.073202115280301</v>
       </c>
       <c r="K16">
-        <v>1.104191080949454</v>
+        <v>1.075211060237398</v>
       </c>
       <c r="L16">
-        <v>1.116537047424296</v>
+        <v>1.078652665675734</v>
       </c>
       <c r="M16">
-        <v>1.119738884912175</v>
+        <v>1.083684044348919</v>
       </c>
       <c r="N16">
-        <v>1.108578281685026</v>
+        <v>1.074726185382002</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.10169317201879</v>
+        <v>1.050147657384748</v>
       </c>
       <c r="D17">
-        <v>1.101456625249166</v>
+        <v>1.064659946071092</v>
       </c>
       <c r="E17">
-        <v>1.113917548229309</v>
+        <v>1.068514453081572</v>
       </c>
       <c r="F17">
-        <v>1.117114595465161</v>
+        <v>1.07355131207972</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.072543076389851</v>
+        <v>1.068350627278669</v>
       </c>
       <c r="J17">
-        <v>1.107463924100499</v>
+        <v>1.075806359859611</v>
       </c>
       <c r="K17">
-        <v>1.104609169640851</v>
+        <v>1.077621882368552</v>
       </c>
       <c r="L17">
-        <v>1.117032585471619</v>
+        <v>1.081419112423271</v>
       </c>
       <c r="M17">
-        <v>1.120220156509317</v>
+        <v>1.086381911683414</v>
       </c>
       <c r="N17">
-        <v>1.10903664990061</v>
+        <v>1.077334128287326</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.102035112307957</v>
+        <v>1.052076553052434</v>
       </c>
       <c r="D18">
-        <v>1.10174023554152</v>
+        <v>1.06624541387339</v>
       </c>
       <c r="E18">
-        <v>1.114245991243304</v>
+        <v>1.070307252357793</v>
       </c>
       <c r="F18">
-        <v>1.11743455756244</v>
+        <v>1.075302533137664</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.07267069450907</v>
+        <v>1.069186369084924</v>
       </c>
       <c r="J18">
-        <v>1.107730706426117</v>
+        <v>1.077306920450296</v>
       </c>
       <c r="K18">
-        <v>1.104852827868739</v>
+        <v>1.079010892363482</v>
       </c>
       <c r="L18">
-        <v>1.117321456353633</v>
+        <v>1.083013531097219</v>
       </c>
       <c r="M18">
-        <v>1.120500701046511</v>
+        <v>1.087936784021481</v>
       </c>
       <c r="N18">
-        <v>1.10930381108773</v>
+        <v>1.078836819846166</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.102151681465091</v>
+        <v>1.052730422631399</v>
       </c>
       <c r="D19">
-        <v>1.101836915924836</v>
+        <v>1.066782948456124</v>
       </c>
       <c r="E19">
-        <v>1.114357964104521</v>
+        <v>1.070915119078764</v>
       </c>
       <c r="F19">
-        <v>1.117543637977995</v>
+        <v>1.075896308355449</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.072714169471788</v>
+        <v>1.069469466506995</v>
       </c>
       <c r="J19">
-        <v>1.10782163906556</v>
+        <v>1.077815515345359</v>
       </c>
       <c r="K19">
-        <v>1.104935874267218</v>
+        <v>1.079481660910488</v>
       </c>
       <c r="L19">
-        <v>1.117419925526217</v>
+        <v>1.083554005217675</v>
       </c>
       <c r="M19">
-        <v>1.12059633030217</v>
+        <v>1.088463848841384</v>
       </c>
       <c r="N19">
-        <v>1.109394872861951</v>
+        <v>1.079346137004317</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.101630263400174</v>
+        <v>1.049791009558259</v>
       </c>
       <c r="D20">
-        <v>1.101404446126014</v>
+        <v>1.064366837447684</v>
       </c>
       <c r="E20">
-        <v>1.11385712515269</v>
+        <v>1.068183032878941</v>
       </c>
       <c r="F20">
-        <v>1.117055732072123</v>
+        <v>1.073227581100908</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.072519583218911</v>
+        <v>1.068196002194737</v>
       </c>
       <c r="J20">
-        <v>1.107414835682022</v>
+        <v>1.075528874922962</v>
       </c>
       <c r="K20">
-        <v>1.104564334007959</v>
+        <v>1.077365017129594</v>
       </c>
       <c r="L20">
-        <v>1.116979436356286</v>
+        <v>1.08112430333362</v>
       </c>
       <c r="M20">
-        <v>1.120168538561211</v>
+        <v>1.086094412941711</v>
       </c>
       <c r="N20">
-        <v>1.108987491770947</v>
+        <v>1.077056249290239</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.099933412855428</v>
+        <v>1.039955036207812</v>
       </c>
       <c r="D21">
-        <v>1.09999680053863</v>
+        <v>1.056288411314915</v>
       </c>
       <c r="E21">
-        <v>1.112227594178617</v>
+        <v>1.05905068150143</v>
       </c>
       <c r="F21">
-        <v>1.115468202206902</v>
+        <v>1.064307523639148</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.07188421335855</v>
+        <v>1.063920305350659</v>
       </c>
       <c r="J21">
-        <v>1.106089951043759</v>
+        <v>1.067872286592384</v>
       </c>
       <c r="K21">
-        <v>1.103353990098112</v>
+        <v>1.070276478228994</v>
       </c>
       <c r="L21">
-        <v>1.115545374856377</v>
+        <v>1.072993496756344</v>
       </c>
       <c r="M21">
-        <v>1.118775699731818</v>
+        <v>1.078165053721775</v>
       </c>
       <c r="N21">
-        <v>1.107660725644531</v>
+        <v>1.069388787726009</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.098865217921957</v>
+        <v>1.033538578682348</v>
       </c>
       <c r="D22">
-        <v>1.099110469776692</v>
+        <v>1.051024239980112</v>
       </c>
       <c r="E22">
-        <v>1.111202048787728</v>
+        <v>1.053101466957602</v>
       </c>
       <c r="F22">
-        <v>1.114469031038889</v>
+        <v>1.058497104293079</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.071482607068619</v>
+        <v>1.061120427529358</v>
       </c>
       <c r="J22">
-        <v>1.105255130555175</v>
+        <v>1.062874192096667</v>
       </c>
       <c r="K22">
-        <v>1.102591109634491</v>
+        <v>1.065648415584829</v>
       </c>
       <c r="L22">
-        <v>1.11464216901573</v>
+        <v>1.067689594020916</v>
       </c>
       <c r="M22">
-        <v>1.117898368906888</v>
+        <v>1.072992448574296</v>
       </c>
       <c r="N22">
-        <v>1.106824719615099</v>
+        <v>1.064383595362818</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.099431615602275</v>
+        <v>1.036963301581949</v>
       </c>
       <c r="D23">
-        <v>1.099580454373491</v>
+        <v>1.053833349670856</v>
       </c>
       <c r="E23">
-        <v>1.111745806189552</v>
+        <v>1.056275989628463</v>
       </c>
       <c r="F23">
-        <v>1.114998810060215</v>
+        <v>1.061597511581355</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.071695708486389</v>
+        <v>1.062615800669016</v>
       </c>
       <c r="J23">
-        <v>1.105697858409706</v>
+        <v>1.065542158921956</v>
       </c>
       <c r="K23">
-        <v>1.102995707772581</v>
+        <v>1.068118925605098</v>
       </c>
       <c r="L23">
-        <v>1.115121124822358</v>
+        <v>1.070520446235014</v>
       </c>
       <c r="M23">
-        <v>1.118363611914554</v>
+        <v>1.075753229283343</v>
       </c>
       <c r="N23">
-        <v>1.107268076193964</v>
+        <v>1.067055351007018</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.101658689532133</v>
+        <v>1.049952234692634</v>
       </c>
       <c r="D24">
-        <v>1.101428024055247</v>
+        <v>1.064499337671896</v>
       </c>
       <c r="E24">
-        <v>1.113884428066743</v>
+        <v>1.068332851224541</v>
       </c>
       <c r="F24">
-        <v>1.117082330244408</v>
+        <v>1.073373923417999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.072530199493301</v>
+        <v>1.068265905304508</v>
       </c>
       <c r="J24">
-        <v>1.107437017234238</v>
+        <v>1.075654315253314</v>
       </c>
       <c r="K24">
-        <v>1.104584593936834</v>
+        <v>1.077481136398305</v>
       </c>
       <c r="L24">
-        <v>1.117003452673406</v>
+        <v>1.081257574016792</v>
       </c>
       <c r="M24">
-        <v>1.12019186302511</v>
+        <v>1.086224378993311</v>
       </c>
       <c r="N24">
-        <v>1.109009704823513</v>
+        <v>1.077181867760248</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.104237591077428</v>
+        <v>1.064125159929184</v>
       </c>
       <c r="D25">
-        <v>1.103566596026985</v>
+        <v>1.076156649392502</v>
       </c>
       <c r="E25">
-        <v>1.11636205987168</v>
+        <v>1.081518880873888</v>
       </c>
       <c r="F25">
-        <v>1.119495865016724</v>
+        <v>1.086254664643975</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.073489430079934</v>
+        <v>1.074384576952283</v>
       </c>
       <c r="J25">
-        <v>1.109447507383472</v>
+        <v>1.086671695609644</v>
       </c>
       <c r="K25">
-        <v>1.10642035106041</v>
+        <v>1.087677520503115</v>
       </c>
       <c r="L25">
-        <v>1.11918121632355</v>
+        <v>1.092971037053643</v>
       </c>
       <c r="M25">
-        <v>1.122306678106413</v>
+        <v>1.097646837503315</v>
       </c>
       <c r="N25">
-        <v>1.111023050099364</v>
+        <v>1.088214894060396</v>
       </c>
     </row>
   </sheetData>
